--- a/project_folder/ProjectGantt.xlsx
+++ b/project_folder/ProjectGantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1783947\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Courses\ASDM\GroupProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
   <si>
     <t>Architecture</t>
   </si>
@@ -285,15 +285,6 @@
     <t>wire up db</t>
   </si>
   <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>html template</t>
-  </si>
-  <si>
-    <t>js/forms</t>
-  </si>
-  <si>
     <t>booty</t>
   </si>
   <si>
@@ -303,13 +294,130 @@
     <t>Abstract svg logic in to level and obstacles</t>
   </si>
   <si>
-    <t>Moving stored procs and validations</t>
-  </si>
-  <si>
-    <t>game workflow</t>
-  </si>
-  <si>
     <t>LV</t>
+  </si>
+  <si>
+    <t>Js/Ajax moving</t>
+  </si>
+  <si>
+    <t>Stored Proc Validation</t>
+  </si>
+  <si>
+    <t>Slight code modifications - hit wall?</t>
+  </si>
+  <si>
+    <t>Developers page/roles</t>
+  </si>
+  <si>
+    <t>Input forms</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Code comments - other code</t>
+  </si>
+  <si>
+    <t>Db system diagram (include views)</t>
+  </si>
+  <si>
+    <t>Test game logic</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Note all actions done in db - tables, views, index etc Ensure have code</t>
+  </si>
+  <si>
+    <t>ME/MP</t>
+  </si>
+  <si>
+    <t>maybe drive db in future</t>
+  </si>
+  <si>
+    <t>Hardcode 10 moves</t>
+  </si>
+  <si>
+    <t>Popup saying success, click next level</t>
+  </si>
+  <si>
+    <t>score input in python</t>
+  </si>
+  <si>
+    <t>Total score on page</t>
+  </si>
+  <si>
+    <t>annimations</t>
+  </si>
+  <si>
+    <t>100 seconds per level - countdown</t>
+  </si>
+  <si>
+    <t>possibly be interval from db</t>
+  </si>
+  <si>
+    <t>Score board - db table</t>
+  </si>
+  <si>
+    <t>Finish - - enter name, submit score - js/ajax submit</t>
+  </si>
+  <si>
+    <t>HTML page design</t>
+  </si>
+  <si>
+    <t>jinga score param,levelid,startx,starty, max levels</t>
+  </si>
+  <si>
+    <t>SQL Script for adding score with variables</t>
+  </si>
+  <si>
+    <t>add total score to db python - new entry  point (addScore), add method in db</t>
+  </si>
+  <si>
+    <t>SQL to display top 10 scores</t>
+  </si>
+  <si>
+    <t>Python generate top 10 scores and add to html - jinga</t>
+  </si>
+  <si>
+    <t>Congratulations, you've finished - no score submit</t>
+  </si>
+  <si>
+    <t>Remove diamond</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>extend template for jinja</t>
+  </si>
+  <si>
+    <t>Unit Tests - fix Icon</t>
+  </si>
+  <si>
+    <t>DB - Spatial Index - fix bug</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Total Score table - db diagram</t>
+  </si>
+  <si>
+    <t>E-R diagram - add total score</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
 </sst>
 </file>
@@ -769,7 +877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,31 +1629,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C1" s="33" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -1556,10 +1668,19 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -1572,21 +1693,48 @@
       <c r="F4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>58</v>
       </c>
@@ -1596,11 +1744,17 @@
       <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>61</v>
       </c>
@@ -1610,11 +1764,17 @@
       <c r="D8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>59</v>
       </c>
@@ -1624,11 +1784,20 @@
       <c r="D9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -1638,8 +1807,17 @@
       <c r="D10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>64</v>
       </c>
@@ -1649,103 +1827,319 @@
       <c r="D11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/project_folder/ProjectGantt.xlsx
+++ b/project_folder/ProjectGantt.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
   <si>
     <t>Architecture</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Python generate top 10 scores and add to html - jinga</t>
   </si>
   <si>
-    <t>Congratulations, you've finished - no score submit</t>
-  </si>
-  <si>
     <t>Remove diamond</t>
   </si>
   <si>
@@ -402,22 +399,52 @@
     <t>DB - Spatial Index - fix bug</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>Total Score table - db diagram</t>
   </si>
   <si>
     <t>E-R diagram - add total score</t>
   </si>
   <si>
-    <t>Thu</t>
-  </si>
-  <si>
     <t>Mon</t>
   </si>
   <si>
-    <t>Sun</t>
+    <t>Music to stop returning on for each level</t>
+  </si>
+  <si>
+    <t>Add intro page</t>
+  </si>
+  <si>
+    <t>Small game improvements</t>
+  </si>
+  <si>
+    <t>Make writeup outline - sections</t>
+  </si>
+  <si>
+    <t>Make presentation outline - sections</t>
+  </si>
+  <si>
+    <t>Increase points/time</t>
+  </si>
+  <si>
+    <t>Popups</t>
+  </si>
+  <si>
+    <t>JS error handling for move submission</t>
+  </si>
+  <si>
+    <t>Congratulations, you've finished - modal</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>explosion</t>
+  </si>
+  <si>
+    <t>sinking</t>
+  </si>
+  <si>
+    <t>Improve level names</t>
   </si>
 </sst>
 </file>
@@ -441,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -593,6 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1629,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K33"/>
+  <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1825,7 @@
         <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
         <v>102</v>
@@ -1814,7 +1848,7 @@
         <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1834,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1845,7 +1879,7 @@
         <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -1853,13 +1887,13 @@
         <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
         <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1876,7 +1910,7 @@
         <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1893,7 +1927,7 @@
         <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1903,14 +1937,14 @@
       <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" t="s">
-        <v>118</v>
+      <c r="H16" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="I16" t="s">
         <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
         <v>109</v>
@@ -1930,7 +1964,7 @@
         <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1947,7 +1981,7 @@
         <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1964,7 +1998,7 @@
         <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1974,14 +2008,14 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="34" t="s">
         <v>115</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1991,14 +2025,14 @@
       <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="34" t="s">
         <v>111</v>
       </c>
       <c r="I21" t="s">
         <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -2012,7 +2046,7 @@
         <v>94</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -2029,7 +2063,7 @@
         <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -2040,13 +2074,13 @@
         <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
         <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -2057,57 +2091,57 @@
         <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
         <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
+      <c r="H26" s="34" t="s">
         <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
+      <c r="H27" s="34" t="s">
         <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
         <v>94</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
         <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -2120,25 +2154,121 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
         <v>94</v>
       </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>92</v>
       </c>
       <c r="I33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>133</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" t="s">
         <v>95</v>
       </c>
     </row>

--- a/project_folder/ProjectGantt.xlsx
+++ b/project_folder/ProjectGantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>Architecture</t>
   </si>
@@ -318,9 +318,6 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Code comments - other code</t>
-  </si>
-  <si>
     <t>Db system diagram (include views)</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>ME/MP</t>
   </si>
   <si>
-    <t>maybe drive db in future</t>
-  </si>
-  <si>
     <t>Hardcode 10 moves</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>100 seconds per level - countdown</t>
   </si>
   <si>
-    <t>possibly be interval from db</t>
-  </si>
-  <si>
     <t>Score board - db table</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>Add intro page</t>
   </si>
   <si>
-    <t>Small game improvements</t>
-  </si>
-  <si>
     <t>Make writeup outline - sections</t>
   </si>
   <si>
@@ -426,12 +414,6 @@
     <t>Increase points/time</t>
   </si>
   <si>
-    <t>Popups</t>
-  </si>
-  <si>
-    <t>JS error handling for move submission</t>
-  </si>
-  <si>
     <t>Congratulations, you've finished - modal</t>
   </si>
   <si>
@@ -441,10 +423,61 @@
     <t>explosion</t>
   </si>
   <si>
-    <t>sinking</t>
-  </si>
-  <si>
     <t>Improve level names</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Code comment/cleanup - Python</t>
+  </si>
+  <si>
+    <t>Level Complete modal</t>
+  </si>
+  <si>
+    <t>Rearrange HTML</t>
+  </si>
+  <si>
+    <t>Description of syntax - quick input</t>
+  </si>
+  <si>
+    <t>Sinking</t>
+  </si>
+  <si>
+    <t>Move styles to Marco style sheet</t>
+  </si>
+  <si>
+    <t>Code comment/cleanup - HTML/JS</t>
+  </si>
+  <si>
+    <t>Buttons in style sheet</t>
+  </si>
+  <si>
+    <t>Cleanup leaderboard</t>
+  </si>
+  <si>
+    <t>JS error handling - testing</t>
+  </si>
+  <si>
+    <t>PointerTimer</t>
+  </si>
+  <si>
+    <t>Adjust fonts (h3)</t>
+  </si>
+  <si>
+    <t>Add h3 to css</t>
+  </si>
+  <si>
+    <t>ME/CC</t>
+  </si>
+  <si>
+    <t>Add Nosetest as tech to PP</t>
+  </si>
+  <si>
+    <t>System diagram</t>
+  </si>
+  <si>
+    <t>Object Model</t>
   </si>
 </sst>
 </file>
@@ -1663,19 +1696,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K46"/>
+  <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.85546875" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1" s="33" t="s">
         <v>35</v>
       </c>
@@ -1685,13 +1719,16 @@
       <c r="H1" s="33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -1708,13 +1745,22 @@
         <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -1736,8 +1782,14 @@
       <c r="J4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>84</v>
       </c>
@@ -1750,8 +1802,14 @@
       <c r="J5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>63</v>
       </c>
@@ -1759,16 +1817,22 @@
         <v>89</v>
       </c>
       <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
         <v>98</v>
       </c>
-      <c r="I6" t="s">
-        <v>99</v>
-      </c>
       <c r="J6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>58</v>
       </c>
@@ -1779,7 +1843,7 @@
         <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -1787,8 +1851,14 @@
       <c r="J7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>61</v>
       </c>
@@ -1799,7 +1869,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
         <v>95</v>
@@ -1807,8 +1877,14 @@
       <c r="J8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>59</v>
       </c>
@@ -1819,7 +1895,7 @@
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
         <v>88</v>
@@ -1827,11 +1903,14 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -1842,7 +1921,7 @@
         <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
         <v>88</v>
@@ -1850,8 +1929,14 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>64</v>
       </c>
@@ -1862,7 +1947,7 @@
         <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
@@ -1870,10 +1955,16 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
@@ -1881,13 +1972,19 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I13" t="s">
         <v>69</v>
@@ -1895,8 +1992,14 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>70</v>
       </c>
@@ -1904,7 +2007,7 @@
         <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
         <v>88</v>
@@ -1912,8 +2015,14 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -1921,7 +2030,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
@@ -1929,8 +2038,14 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1938,19 +2053,22 @@
         <v>67</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
@@ -1958,7 +2076,7 @@
         <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>95</v>
@@ -1966,8 +2084,14 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1975,7 +2099,7 @@
         <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
         <v>94</v>
@@ -1983,8 +2107,14 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
@@ -1992,7 +2122,7 @@
         <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
         <v>94</v>
@@ -2000,8 +2130,14 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
@@ -2009,16 +2145,22 @@
         <v>67</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2026,21 +2168,27 @@
         <v>67</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
         <v>88</v>
       </c>
       <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
         <v>94</v>
@@ -2048,8 +2196,14 @@
       <c r="J22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2057,7 +2211,7 @@
         <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
         <v>67</v>
@@ -2066,7 +2220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
@@ -2074,7 +2228,7 @@
         <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
         <v>94</v>
@@ -2083,7 +2237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>81</v>
       </c>
@@ -2091,7 +2245,7 @@
         <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
         <v>94</v>
@@ -2100,18 +2254,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H26" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" t="s">
         <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H27" s="34" t="s">
         <v>74</v>
       </c>
@@ -2119,53 +2273,56 @@
         <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I28" t="s">
         <v>94</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
         <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" t="s">
-        <v>94</v>
-      </c>
       <c r="J31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
         <v>95</v>
@@ -2176,100 +2333,46 @@
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="I35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H37" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>133</v>
-      </c>
-      <c r="I42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H43" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>135</v>
-      </c>
-      <c r="I44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" t="s">
-        <v>95</v>
+      <c r="J36" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
